--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>N_Calib_1</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Sí</t>
   </si>
 </sst>
 </file>
@@ -441,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6329719892210386</v>
+        <v>0.6191354630309253</v>
       </c>
       <c r="D2">
-        <v>0.526838133140259</v>
+        <v>0.5421860390687239</v>
       </c>
       <c r="E2">
         <v>0.5701022585598088</v>
@@ -467,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.55961893954472</v>
+        <v>1.329899267606514</v>
       </c>
       <c r="D3">
-        <v>0.1190384157105464</v>
+        <v>0.1971758856784527</v>
       </c>
       <c r="E3">
         <v>0.5701022585598088</v>
@@ -493,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.211538265852156</v>
+        <v>0.9459950934441</v>
       </c>
       <c r="D4">
-        <v>0.2258596597090319</v>
+        <v>0.3544263108606702</v>
       </c>
       <c r="E4">
         <v>0.5701022585598088</v>
@@ -519,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.43584453813903</v>
+        <v>1.969104919576889</v>
       </c>
       <c r="D5">
-        <v>0.01496047583284854</v>
+        <v>0.06166382251492286</v>
       </c>
       <c r="E5">
         <v>0.5701022585598088</v>
@@ -531,7 +528,7 @@
         <v>0.5327762422047049</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -545,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.8089122949207946</v>
+        <v>0.7281727061528513</v>
       </c>
       <c r="D6">
-        <v>0.4186802036630768</v>
+        <v>0.4741877812233901</v>
       </c>
       <c r="E6">
         <v>0.5586022606797041</v>
@@ -571,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5434362522999292</v>
+        <v>0.5230055931100051</v>
       </c>
       <c r="D7">
-        <v>0.5869016126670537</v>
+        <v>0.6061983706090444</v>
       </c>
       <c r="E7">
         <v>0.5586022606797041</v>
@@ -597,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.893096569915452</v>
+        <v>1.827157562554717</v>
       </c>
       <c r="D8">
-        <v>0.0585168498053581</v>
+        <v>0.08127450029725947</v>
       </c>
       <c r="E8">
         <v>0.5586022606797041</v>
@@ -623,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.3392274230705999</v>
+        <v>-0.3123449568785451</v>
       </c>
       <c r="D9">
-        <v>0.7344808350822303</v>
+        <v>0.7577196605340986</v>
       </c>
       <c r="E9">
         <v>0.5443347499590159</v>
@@ -649,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.7143375547954203</v>
+        <v>0.5525072448575221</v>
       </c>
       <c r="D10">
-        <v>0.4751177718759982</v>
+        <v>0.5861711684781947</v>
       </c>
       <c r="E10">
         <v>0.5443347499590159</v>
@@ -675,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.092642189726794</v>
+        <v>0.8883016465124707</v>
       </c>
       <c r="D11">
-        <v>0.2747076801459301</v>
+        <v>0.3839880547286343</v>
       </c>
       <c r="E11">
         <v>0.5496177449342837</v>
